--- a/inst/extdata/metadata.xlsx
+++ b/inst/extdata/metadata.xlsx
@@ -1,76 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biosignal\Desktop\LCMS_2019\NIHSlcms\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmadrid\Downloads\MTBLS4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60939D-7757-4AF0-A62C-0B9A9CA7ECE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EAC74247-E094-4A14-BD3B-C82C85733288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FDC92558-600D-4413-B3C6-A742C38F5FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="a_live_mtbl5_metabolite profili" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="65">
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>Parameter Value[Post Extraction]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Derivatization]</t>
+  </si>
+  <si>
+    <t>Extract Name</t>
+  </si>
+  <si>
+    <t>Parameter Value[Chromatography Instrument]</t>
+  </si>
+  <si>
+    <t>Term Source REF</t>
+  </si>
+  <si>
+    <t>Term Accession Number</t>
+  </si>
+  <si>
+    <t>Parameter Value[Column model]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Column type]</t>
+  </si>
+  <si>
+    <t>Labeled Extract Name</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Parameter Value[Scan polarity]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Scan m/z range]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Instrument]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Ion source]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Mass analyzer]</t>
+  </si>
+  <si>
+    <t>MS Assay Name</t>
+  </si>
+  <si>
+    <t>Raw Spectral Data File</t>
+  </si>
+  <si>
+    <t>Normalization Name</t>
+  </si>
+  <si>
+    <t>Derived Spectral Data File</t>
+  </si>
+  <si>
+    <t>Data Transformation Name</t>
+  </si>
+  <si>
+    <t>Metabolite Assignment File</t>
+  </si>
+  <si>
+    <t>Factor Value[healthy volunteers]</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C01</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Chromatography</t>
+  </si>
+  <si>
+    <t>Accela U-HPLC system (Thermo Scientific)</t>
+  </si>
+  <si>
+    <t>5.0 Ã— 2.1 mm Hypersil Gold 1.9 Âµm C18 column (Thermo Scientific)</t>
+  </si>
+  <si>
+    <t>reverse phase CI8</t>
+  </si>
+  <si>
+    <t>Mass spectrometry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>150-1000</t>
+  </si>
+  <si>
+    <t>Exactive</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>50000 resolving power; 2 Hz</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C01.raw</t>
+  </si>
+  <si>
+    <t>Data transformation</t>
+  </si>
+  <si>
+    <t>Metabolite identification</t>
+  </si>
+  <si>
+    <t>m_live_mtbl5_metabolite profiling_mass spectrometry_v2_maf.tsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma  ringer   palm  </t>
+  </si>
+  <si>
+    <t>Accepts Healthy Volunteers Indicator</t>
+  </si>
+  <si>
+    <t>NCIt</t>
+  </si>
+  <si>
+    <t>Accepts_Healthy_Volunteers_Indicator</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C02</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C02.raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma    </t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C04</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C04.raw</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C05</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C05.raw</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C07</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C07.raw</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C09</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C09.raw</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C11</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C11.raw</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C18</t>
+  </si>
+  <si>
+    <t>MRC_Run1_10uL_C18.raw</t>
+  </si>
+  <si>
+    <t>sampleNames</t>
+  </si>
   <si>
     <t>treatment</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>oligomycin</t>
-  </si>
-  <si>
-    <t>resveratrol</t>
-  </si>
-  <si>
-    <t>1.mzXML</t>
-  </si>
-  <si>
-    <t>2.mzXML</t>
-  </si>
-  <si>
-    <t>3.mzXML</t>
-  </si>
-  <si>
-    <t>4.mzXML</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>sampleNames</t>
-  </si>
-  <si>
-    <t>sampleNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +229,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,16 +546,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,181 +1056,966 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE2DF70-C10E-4AAF-B202-5AAEF9C6B3E4}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>A2&amp;".mzXML"</f>
+        <v>MRC_Run1_10uL_C01.mzXML</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1000649</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1000073</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B9" si="0">A3&amp;".mzXML"</f>
+        <v>MRC_Run1_10uL_C02.mzXML</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1000649</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1000073</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C04.mzXML</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1000649</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1000073</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C05.mzXML</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1000649</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1000073</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C07.mzXML</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1000649</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1000073</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C09.mzXML</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1000649</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1000073</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C11.mzXML</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1000649</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1000073</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MRC_Run1_10uL_C18.mzXML</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1000649</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1000073</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
